--- a/Modbus Memory Map.xlsx
+++ b/Modbus Memory Map.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob Seedorff\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseedorff\Documents\GitHub\KMPModbusTCPGateway\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23304" windowHeight="11880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="11880"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
   <si>
     <t>Hi</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Max. Værdi for indeværende år</t>
+  </si>
+  <si>
+    <t>2 = No response from Kamstrup 602</t>
   </si>
 </sst>
 </file>
@@ -400,15 +403,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,9 +430,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -467,7 +470,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -539,7 +542,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -689,39 +692,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -741,7 +748,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>0</v>
       </c>
@@ -761,7 +768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -781,7 +788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -795,7 +802,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>3</v>
       </c>
@@ -815,7 +822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>4</v>
       </c>
@@ -835,7 +842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>5</v>
       </c>
@@ -855,7 +862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -875,7 +882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>7</v>
       </c>
@@ -889,7 +896,7 @@
       <c r="E12" s="15"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -909,7 +916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>9</v>
       </c>
@@ -923,7 +930,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -943,7 +950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>11</v>
       </c>
@@ -957,7 +964,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -977,7 +984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>13</v>
       </c>
@@ -991,7 +998,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -1011,7 +1018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>15</v>
       </c>
@@ -1025,7 +1032,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -1045,7 +1052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>17</v>
       </c>
@@ -1059,7 +1066,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -1079,7 +1086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>19</v>
       </c>
@@ -1093,7 +1100,7 @@
       <c r="E24" s="15"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -1113,86 +1120,78 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>21</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="D26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <v>22</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="14">
         <v>99</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="D27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
         <v>23</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>24</v>
+      </c>
+      <c r="B29" s="15">
         <v>146</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="12" t="s">
+      <c r="D29" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F29" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
-        <v>24</v>
-      </c>
-      <c r="B29" s="12">
-        <v>147</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>25</v>
       </c>
       <c r="B30" s="12">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>47</v>
@@ -1201,18 +1200,18 @@
         <v>43</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>26</v>
       </c>
       <c r="B31" s="12">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>47</v>
@@ -1221,68 +1220,85 @@
         <v>43</v>
       </c>
       <c r="E31" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>27</v>
+      </c>
+      <c r="B32" s="12">
+        <v>150</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F32" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
-        <v>27</v>
-      </c>
-      <c r="B32" s="18">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>28</v>
+      </c>
+      <c r="B33" s="16">
         <v>127</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C33" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="14" t="s">
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
-        <v>28</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="19" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>29</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20">
-        <v>29</v>
-      </c>
-      <c r="B34" s="12">
+      <c r="D34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>30</v>
+      </c>
+      <c r="B35" s="12">
         <v>128</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C35" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="12" t="s">
+      <c r="D35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F35" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="1048576" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1048576" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1290,6 +1306,5 @@
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>